--- a/tableau-synthese.xlsx
+++ b/tableau-synthese.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portofolio\Portfolio - Evan Billot_fichiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BAADC9-C609-40B0-880F-0F12644B3635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773CD96A-0548-4EF5-8569-C4B370201B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1665" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
+    <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -56,9 +56,6 @@
     <t>NOM et prénom : Billot Evan</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Centre de formation : ESIEE-IT Montigny 0781809T</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -190,13 +184,33 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t xml:space="preserve">Réalisation 10 - </t>
-  </si>
-  <si>
     <t>Réalisation 11 - Projet (Changement de serveur)</t>
   </si>
   <si>
     <t>Réalisation 12 - Projet (Migration vers Windows 11)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adresse URL du portfolio : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://meenoz974.github.io/portfolio-evan-billot/</t>
+    </r>
+  </si>
+  <si>
+    <t>N° candidat : 02148480026</t>
+  </si>
+  <si>
+    <t>Réalisation 10 - Test Etheret (Brassage)</t>
+  </si>
+  <si>
+    <t>01/2025
+10/2025</t>
   </si>
 </sst>
 </file>
@@ -206,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -309,6 +323,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -703,6 +722,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,24 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,10 +836,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,258 +953,258 @@
   </sheetPr>
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="81.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="18.7265625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.453125" customWidth="1"/>
+    <col min="44" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="324.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="B9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="B11" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="12"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1197,10 +1212,10 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1210,7 +1225,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1220,7 +1235,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -1230,7 +1245,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -1240,83 +1255,83 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="21">
         <v>45383</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -1326,7 +1341,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -1336,7 +1351,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -1346,7 +1361,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -1356,77 +1371,85 @@
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="27">
         <v>45566</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="21">
         <v>45627</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="21">
-        <v>45809</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -1436,7 +1459,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -1446,7 +1469,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -1456,7 +1479,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -1466,7 +1489,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
@@ -1478,6 +1501,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A4:E4"/>
@@ -1485,11 +1513,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/tableau-synthese.xlsx
+++ b/tableau-synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773CD96A-0548-4EF5-8569-C4B370201B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F88DE0-6E54-4019-80EC-32C759473DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,11 +206,11 @@
     <t>N° candidat : 02148480026</t>
   </si>
   <si>
-    <t>Réalisation 10 - Test Etheret (Brassage)</t>
-  </si>
-  <si>
     <t>01/2025
 10/2025</t>
+  </si>
+  <si>
+    <t>Réalisation 10 - Brassage entre switch et platine</t>
   </si>
 </sst>
 </file>
@@ -722,6 +722,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,18 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,8 +953,8 @@
   </sheetPr>
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -967,56 +967,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1028,22 +1028,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1066,8 +1066,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -1088,16 +1088,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -1256,16 +1256,16 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
@@ -1372,20 +1372,20 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="27">
         <v>45566</v>
@@ -1432,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>25</v>
@@ -1501,11 +1501,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A4:E4"/>
@@ -1513,6 +1508,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
